--- a/static/csv.xlsx
+++ b/static/csv.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="740">
   <si>
     <t>RAVI RAJ ANODISERS</t>
   </si>
@@ -1468,6 +1468,68 @@
     <t>RRA250</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Transparent Tape </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>½</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brown Tape </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>½</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
     <t>RRA251</t>
   </si>
   <si>
@@ -2321,7 +2383,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2354,7 +2416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2362,6 +2423,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2511,6 +2573,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3008,6 +3076,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -3130,19 +3211,6 @@
       <left style="dotted">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -3253,19 +3321,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3274,7 +3342,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3398,7 +3466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3529,14 +3597,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3559,18 +3682,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3582,12 +3708,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3600,10 +3726,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -4011,7 +4137,7 @@
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="97" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="17"/>
@@ -4296,7 +4422,7 @@
       <c r="B25" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="91" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="22"/>
@@ -4311,7 +4437,7 @@
       <c r="B26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="91" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="22"/>
@@ -4326,7 +4452,7 @@
       <c r="B27" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="91" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="22"/>
@@ -4731,7 +4857,7 @@
       <c r="B54" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="88" t="s">
         <v>89</v>
       </c>
       <c r="D54" s="22"/>
@@ -4773,10 +4899,10 @@
       <c r="A57" s="29">
         <v>52</v>
       </c>
-      <c r="B57" s="76" t="s">
+      <c r="B57" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="88" t="s">
         <v>95</v>
       </c>
       <c r="D57" s="22"/>
@@ -4788,10 +4914,10 @@
       <c r="A58" s="14">
         <v>53</v>
       </c>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="88" t="s">
         <v>97</v>
       </c>
       <c r="D58" s="22"/>
@@ -4803,7 +4929,7 @@
       <c r="A59" s="29">
         <v>54</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="98" t="s">
         <v>98</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -4818,10 +4944,10 @@
       <c r="A60" s="14">
         <v>55</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="88" t="s">
         <v>101</v>
       </c>
       <c r="D60" s="22"/>
@@ -4833,10 +4959,10 @@
       <c r="A61" s="29">
         <v>56</v>
       </c>
-      <c r="B61" s="76" t="s">
+      <c r="B61" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="88" t="s">
         <v>103</v>
       </c>
       <c r="D61" s="22"/>
@@ -4848,10 +4974,10 @@
       <c r="A62" s="14">
         <v>57</v>
       </c>
-      <c r="B62" s="77" t="s">
+      <c r="B62" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="100" t="s">
         <v>105</v>
       </c>
       <c r="D62" s="22"/>
@@ -4863,10 +4989,10 @@
       <c r="A63" s="29">
         <v>58</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="88" t="s">
         <v>107</v>
       </c>
       <c r="D63" s="22"/>
@@ -4878,10 +5004,10 @@
       <c r="A64" s="14">
         <v>59</v>
       </c>
-      <c r="B64" s="76" t="s">
+      <c r="B64" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="88" t="s">
         <v>109</v>
       </c>
       <c r="D64" s="22"/>
@@ -4893,10 +5019,10 @@
       <c r="A65" s="29">
         <v>60</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="88" t="s">
         <v>111</v>
       </c>
       <c r="D65" s="22"/>
@@ -4908,10 +5034,10 @@
       <c r="A66" s="14">
         <v>61</v>
       </c>
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="88" t="s">
         <v>113</v>
       </c>
       <c r="D66" s="22"/>
@@ -4923,10 +5049,10 @@
       <c r="A67" s="29">
         <v>62</v>
       </c>
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="88" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="22"/>
@@ -4938,10 +5064,10 @@
       <c r="A68" s="14">
         <v>63</v>
       </c>
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="88" t="s">
         <v>117</v>
       </c>
       <c r="D68" s="22"/>
@@ -5013,10 +5139,10 @@
       <c r="A73" s="29">
         <v>68</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="88" t="s">
         <v>127</v>
       </c>
       <c r="D73" s="22"/>
@@ -5028,7 +5154,7 @@
       <c r="A74" s="14">
         <v>69</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="98" t="s">
         <v>128</v>
       </c>
       <c r="C74" s="22" t="s">
@@ -5043,7 +5169,7 @@
       <c r="A75" s="29">
         <v>70</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="98" t="s">
         <v>130</v>
       </c>
       <c r="C75" s="22" t="s">
@@ -5058,7 +5184,7 @@
       <c r="A76" s="14">
         <v>71</v>
       </c>
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="98" t="s">
         <v>132</v>
       </c>
       <c r="C76" s="22" t="s">
@@ -5073,7 +5199,7 @@
       <c r="A77" s="29">
         <v>72</v>
       </c>
-      <c r="B77" s="76" t="s">
+      <c r="B77" s="98" t="s">
         <v>134</v>
       </c>
       <c r="C77" s="22" t="s">
@@ -5101,14 +5227,14 @@
       <c r="A79" s="29">
         <v>74</v>
       </c>
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="81"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="103"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="14">
@@ -5253,7 +5379,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -5265,10 +5391,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -5280,10 +5406,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -5295,10 +5421,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -5310,10 +5436,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -5325,10 +5451,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -5340,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="22"/>
@@ -5353,7 +5479,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="22"/>
@@ -5366,7 +5492,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="22"/>
@@ -5379,7 +5505,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="22"/>
@@ -5392,7 +5518,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -5405,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -5418,7 +5544,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -5431,7 +5557,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -5444,7 +5570,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -5457,7 +5583,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -5470,7 +5596,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -5483,7 +5609,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -5496,7 +5622,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -5509,7 +5635,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -5522,7 +5648,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -5678,7 +5804,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -5690,10 +5816,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -5705,10 +5831,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -5720,10 +5846,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -5735,7 +5861,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="22"/>
@@ -5748,7 +5874,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="22"/>
@@ -5761,7 +5887,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="22"/>
@@ -5774,7 +5900,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="22"/>
@@ -5787,7 +5913,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="22"/>
@@ -5800,7 +5926,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="22"/>
@@ -5813,7 +5939,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -5826,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -5839,7 +5965,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -5852,7 +5978,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -5865,7 +5991,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -5878,7 +6004,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -5891,7 +6017,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -5904,7 +6030,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -5917,7 +6043,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -5930,7 +6056,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -5943,7 +6069,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -6107,7 +6233,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6119,10 +6245,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6134,10 +6260,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -6149,10 +6275,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -6164,10 +6290,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -6179,10 +6305,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -6194,7 +6320,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="22"/>
@@ -6207,7 +6333,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="22"/>
@@ -6220,7 +6346,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="22"/>
@@ -6233,7 +6359,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="22"/>
@@ -6246,7 +6372,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="22"/>
@@ -6259,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -6272,7 +6398,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -6285,7 +6411,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -6298,7 +6424,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -6311,7 +6437,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -6324,7 +6450,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -6337,7 +6463,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -6350,7 +6476,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -6363,7 +6489,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="22"/>
@@ -6376,7 +6502,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="22"/>
@@ -6541,7 +6667,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6553,10 +6679,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6568,10 +6694,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -6583,10 +6709,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -6598,10 +6724,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -6613,10 +6739,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -6628,10 +6754,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -6643,7 +6769,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="22"/>
@@ -6656,7 +6782,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="22"/>
@@ -6669,7 +6795,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="22"/>
@@ -6682,7 +6808,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -6695,7 +6821,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -6708,7 +6834,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -6721,7 +6847,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -6734,7 +6860,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -6747,7 +6873,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -6760,7 +6886,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -6773,7 +6899,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -6786,7 +6912,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -6799,7 +6925,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -6812,7 +6938,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -7185,7 +7311,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="74"/>
+      <c r="H21" s="96"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14">
@@ -7239,7 +7365,7 @@
       <c r="B25" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="91" t="s">
         <v>180</v>
       </c>
       <c r="D25" s="22"/>
@@ -7254,7 +7380,7 @@
       <c r="B26" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="91" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="22"/>
@@ -7269,7 +7395,7 @@
       <c r="B27" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="91" t="s">
         <v>184</v>
       </c>
       <c r="D27" s="22"/>
@@ -8323,19 +8449,19 @@
       <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="43" t="s">
@@ -8346,24 +8472,24 @@
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:7">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="46"/>
       <c r="G5" s="47"/>
     </row>
     <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="63"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="29">
@@ -8536,7 +8662,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="29"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="86" t="s">
         <v>307</v>
       </c>
       <c r="D19" s="22"/>
@@ -8860,7 +8986,7 @@
     <row r="43" spans="1:7">
       <c r="A43" s="29"/>
       <c r="B43" s="27"/>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="87" t="s">
         <v>341</v>
       </c>
       <c r="D43" s="22"/>
@@ -8875,7 +9001,7 @@
       <c r="B44" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="88" t="s">
         <v>343</v>
       </c>
       <c r="D44" s="22"/>
@@ -8890,7 +9016,7 @@
       <c r="B45" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="88" t="s">
         <v>345</v>
       </c>
       <c r="D45" s="22"/>
@@ -8905,7 +9031,7 @@
       <c r="B46" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="88" t="s">
         <v>347</v>
       </c>
       <c r="D46" s="22"/>
@@ -8916,7 +9042,7 @@
     <row r="47" spans="1:7">
       <c r="A47" s="29"/>
       <c r="B47" s="27"/>
-      <c r="C47" s="66"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -8925,7 +9051,7 @@
     <row r="48" spans="1:7">
       <c r="A48" s="29"/>
       <c r="B48" s="27"/>
-      <c r="C48" s="66"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -8952,7 +9078,7 @@
     <row r="51" spans="1:7">
       <c r="A51" s="29"/>
       <c r="B51" s="27"/>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="86" t="s">
         <v>348</v>
       </c>
       <c r="D51" s="22"/>
@@ -9127,7 +9253,7 @@
     <row r="64" spans="1:7">
       <c r="A64" s="29"/>
       <c r="B64" s="27"/>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="86" t="s">
         <v>367</v>
       </c>
       <c r="D64" s="22"/>
@@ -9293,7 +9419,7 @@
     <row r="76" spans="1:7">
       <c r="A76" s="29"/>
       <c r="B76" s="27"/>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="86" t="s">
         <v>386</v>
       </c>
       <c r="D76" s="22"/>
@@ -9455,7 +9581,7 @@
     <row r="88" spans="1:7">
       <c r="A88" s="29"/>
       <c r="B88" s="27"/>
-      <c r="C88" s="67" t="s">
+      <c r="C88" s="89" t="s">
         <v>403</v>
       </c>
       <c r="D88" s="22"/>
@@ -9470,7 +9596,7 @@
       <c r="B89" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="C89" s="68">
+      <c r="C89" s="90">
         <v>0.5</v>
       </c>
       <c r="D89" s="22"/>
@@ -9485,7 +9611,7 @@
       <c r="B90" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="C90" s="68">
+      <c r="C90" s="90">
         <v>0.8</v>
       </c>
       <c r="D90" s="22"/>
@@ -9500,7 +9626,7 @@
       <c r="B91" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="C91" s="68">
+      <c r="C91" s="90">
         <v>1</v>
       </c>
       <c r="D91" s="22"/>
@@ -9515,7 +9641,7 @@
       <c r="B92" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="C92" s="69">
+      <c r="C92" s="91">
         <v>1.5</v>
       </c>
       <c r="D92" s="22"/>
@@ -9530,7 +9656,7 @@
       <c r="B93" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="C93" s="69">
+      <c r="C93" s="91">
         <v>2</v>
       </c>
       <c r="D93" s="22"/>
@@ -9545,7 +9671,7 @@
       <c r="B94" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="C94" s="69">
+      <c r="C94" s="91">
         <v>2.5</v>
       </c>
       <c r="D94" s="22"/>
@@ -9560,7 +9686,7 @@
       <c r="B95" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="C95" s="69">
+      <c r="C95" s="91">
         <v>3</v>
       </c>
       <c r="D95" s="22"/>
@@ -9575,7 +9701,7 @@
       <c r="B96" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="C96" s="69">
+      <c r="C96" s="91">
         <v>4</v>
       </c>
       <c r="D96" s="22"/>
@@ -9590,7 +9716,7 @@
       <c r="B97" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="C97" s="69">
+      <c r="C97" s="91">
         <v>8</v>
       </c>
       <c r="D97" s="22"/>
@@ -9605,7 +9731,7 @@
       <c r="B98" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="C98" s="69"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
       <c r="F98" s="22"/>
@@ -9614,7 +9740,7 @@
     <row r="99" spans="1:7">
       <c r="A99" s="29"/>
       <c r="B99" s="27"/>
-      <c r="C99" s="69"/>
+      <c r="C99" s="91"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
@@ -9623,7 +9749,7 @@
     <row r="100" spans="1:7">
       <c r="A100" s="29"/>
       <c r="B100" s="27"/>
-      <c r="C100" s="67" t="s">
+      <c r="C100" s="89" t="s">
         <v>414</v>
       </c>
       <c r="D100" s="22"/>
@@ -9638,7 +9764,7 @@
       <c r="B101" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="C101" s="69">
+      <c r="C101" s="91">
         <v>0.5</v>
       </c>
       <c r="D101" s="22"/>
@@ -9653,7 +9779,7 @@
       <c r="B102" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="C102" s="69">
+      <c r="C102" s="91">
         <v>0.8</v>
       </c>
       <c r="D102" s="22"/>
@@ -9668,7 +9794,7 @@
       <c r="B103" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="C103" s="69">
+      <c r="C103" s="91">
         <v>1</v>
       </c>
       <c r="D103" s="22"/>
@@ -9683,7 +9809,7 @@
       <c r="B104" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="C104" s="69">
+      <c r="C104" s="91">
         <v>1.5</v>
       </c>
       <c r="D104" s="22"/>
@@ -9698,7 +9824,7 @@
       <c r="B105" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="C105" s="69">
+      <c r="C105" s="91">
         <v>2</v>
       </c>
       <c r="D105" s="22"/>
@@ -9713,7 +9839,7 @@
       <c r="B106" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="C106" s="69">
+      <c r="C106" s="91">
         <v>2.5</v>
       </c>
       <c r="D106" s="22"/>
@@ -9728,7 +9854,7 @@
       <c r="B107" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="C107" s="69">
+      <c r="C107" s="91">
         <v>3</v>
       </c>
       <c r="D107" s="22"/>
@@ -9743,7 +9869,7 @@
       <c r="B108" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="C108" s="70">
+      <c r="C108" s="92">
         <v>4</v>
       </c>
       <c r="D108" s="22"/>
@@ -9758,7 +9884,7 @@
       <c r="B109" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="C109" s="70">
+      <c r="C109" s="92">
         <v>8</v>
       </c>
       <c r="D109" s="22"/>
@@ -9773,7 +9899,7 @@
       <c r="B110" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="C110" s="70"/>
+      <c r="C110" s="92"/>
       <c r="D110" s="22"/>
       <c r="E110" s="22"/>
       <c r="F110" s="22"/>
@@ -9800,7 +9926,7 @@
     <row r="113" spans="1:7">
       <c r="A113" s="29"/>
       <c r="B113" s="27"/>
-      <c r="C113" s="71" t="s">
+      <c r="C113" s="93" t="s">
         <v>425</v>
       </c>
       <c r="D113" s="22"/>
@@ -9815,7 +9941,7 @@
       <c r="B114" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="C114" s="69">
+      <c r="C114" s="91">
         <v>0.1</v>
       </c>
       <c r="D114" s="22"/>
@@ -9830,7 +9956,7 @@
       <c r="B115" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="C115" s="69">
+      <c r="C115" s="91">
         <v>0.2</v>
       </c>
       <c r="D115" s="22"/>
@@ -9845,7 +9971,7 @@
       <c r="B116" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="C116" s="69">
+      <c r="C116" s="91">
         <v>0.3</v>
       </c>
       <c r="D116" s="22"/>
@@ -9860,7 +9986,7 @@
       <c r="B117" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="C117" s="69">
+      <c r="C117" s="91">
         <v>0.4</v>
       </c>
       <c r="D117" s="22"/>
@@ -9875,7 +10001,7 @@
       <c r="B118" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="C118" s="69">
+      <c r="C118" s="91">
         <v>0.5</v>
       </c>
       <c r="D118" s="22"/>
@@ -9890,7 +10016,7 @@
       <c r="B119" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="C119" s="69" t="s">
+      <c r="C119" s="91" t="s">
         <v>432</v>
       </c>
       <c r="D119" s="22"/>
@@ -9905,7 +10031,7 @@
       <c r="B120" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="C120" s="69" t="s">
+      <c r="C120" s="91" t="s">
         <v>434</v>
       </c>
       <c r="D120" s="22"/>
@@ -9920,7 +10046,7 @@
       <c r="B121" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="C121" s="69" t="s">
+      <c r="C121" s="91" t="s">
         <v>436</v>
       </c>
       <c r="D121" s="22"/>
@@ -9935,7 +10061,7 @@
       <c r="B122" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="C122" s="72">
+      <c r="C122" s="94">
         <v>3</v>
       </c>
       <c r="D122" s="22"/>
@@ -9950,7 +10076,7 @@
       <c r="B123" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="C123" s="72">
+      <c r="C123" s="94">
         <v>4</v>
       </c>
       <c r="D123" s="22"/>
@@ -9965,7 +10091,7 @@
       <c r="B124" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="C124" s="72"/>
+      <c r="C124" s="94"/>
       <c r="D124" s="22"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
@@ -9974,7 +10100,7 @@
     <row r="125" spans="1:7">
       <c r="A125" s="29"/>
       <c r="B125" s="27"/>
-      <c r="C125" s="72"/>
+      <c r="C125" s="94"/>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
@@ -9983,7 +10109,7 @@
     <row r="126" spans="1:7">
       <c r="A126" s="29"/>
       <c r="B126" s="27"/>
-      <c r="C126" s="71" t="s">
+      <c r="C126" s="93" t="s">
         <v>440</v>
       </c>
       <c r="D126" s="22"/>
@@ -9998,7 +10124,7 @@
       <c r="B127" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="C127" s="69">
+      <c r="C127" s="91">
         <v>0.1</v>
       </c>
       <c r="D127" s="22"/>
@@ -10013,7 +10139,7 @@
       <c r="B128" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="C128" s="69">
+      <c r="C128" s="91">
         <v>0.2</v>
       </c>
       <c r="D128" s="22"/>
@@ -10028,7 +10154,7 @@
       <c r="B129" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="C129" s="69">
+      <c r="C129" s="91">
         <v>0.3</v>
       </c>
       <c r="D129" s="22"/>
@@ -10043,7 +10169,7 @@
       <c r="B130" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="C130" s="69">
+      <c r="C130" s="91">
         <v>0.4</v>
       </c>
       <c r="D130" s="22"/>
@@ -10058,7 +10184,7 @@
       <c r="B131" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="C131" s="69">
+      <c r="C131" s="91">
         <v>0.5</v>
       </c>
       <c r="D131" s="22"/>
@@ -10073,7 +10199,7 @@
       <c r="B132" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="C132" s="69">
+      <c r="C132" s="91">
         <v>0.8</v>
       </c>
       <c r="D132" s="22"/>
@@ -10088,7 +10214,7 @@
       <c r="B133" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="C133" s="69" t="s">
+      <c r="C133" s="91" t="s">
         <v>448</v>
       </c>
       <c r="D133" s="22"/>
@@ -10103,7 +10229,7 @@
       <c r="B134" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="C134" s="69">
+      <c r="C134" s="91">
         <v>1.5</v>
       </c>
       <c r="D134" s="22"/>
@@ -10118,7 +10244,7 @@
       <c r="B135" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="C135" s="69">
+      <c r="C135" s="91">
         <v>2</v>
       </c>
       <c r="D135" s="22"/>
@@ -10146,7 +10272,7 @@
       <c r="B137" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="C137" s="69"/>
+      <c r="C137" s="91"/>
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
@@ -10159,7 +10285,7 @@
       <c r="B138" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="C138" s="69"/>
+      <c r="C138" s="91"/>
       <c r="D138" s="22"/>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
@@ -10172,7 +10298,7 @@
       <c r="B139" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="C139" s="69"/>
+      <c r="C139" s="91"/>
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
@@ -10185,7 +10311,7 @@
       <c r="B140" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="C140" s="69"/>
+      <c r="C140" s="91"/>
       <c r="D140" s="22"/>
       <c r="E140" s="22"/>
       <c r="F140" s="22"/>
@@ -10223,7 +10349,7 @@
       <c r="G143" s="23"/>
     </row>
     <row r="144" ht="15.15" spans="1:7">
-      <c r="A144" s="73"/>
+      <c r="A144" s="95"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -10252,10 +10378,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A1" sqref="A1:B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -10269,11 +10395,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>458</v>
+      <c r="A1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>10</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -10281,11 +10407,11 @@
       <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>460</v>
+      <c r="A2" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -10293,11 +10419,11 @@
       <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>462</v>
+      <c r="A3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -10305,11 +10431,11 @@
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>464</v>
+      <c r="A4" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -10317,11 +10443,11 @@
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>466</v>
+      <c r="A5" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -10329,11 +10455,11 @@
       <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>468</v>
+      <c r="A6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -10341,11 +10467,11 @@
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>470</v>
+      <c r="A7" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -10353,11 +10479,11 @@
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>472</v>
+      <c r="A8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -10365,11 +10491,11 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>474</v>
+      <c r="A9" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -10377,11 +10503,11 @@
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>476</v>
+      <c r="A10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -10389,111 +10515,131 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="28"/>
+      <c r="A11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="B12" s="28"/>
+      <c r="A12" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="A13" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="B14" s="28"/>
+      <c r="A14" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="B15" s="28"/>
+      <c r="A15" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B16" s="28"/>
+      <c r="A16" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="B17" s="29"/>
+      <c r="A17" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="B18" s="28"/>
+      <c r="A18" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="B19" s="28"/>
+      <c r="A19" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>46</v>
+      </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="B20" s="28"/>
+      <c r="A20" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>488</v>
+      <c r="A21" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -10501,11 +10647,11 @@
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>490</v>
+      <c r="A22" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -10513,11 +10659,11 @@
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>492</v>
+      <c r="A23" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -10525,11 +10671,11 @@
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>494</v>
+      <c r="A24" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -10537,11 +10683,11 @@
       <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>496</v>
+      <c r="A25" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -10549,1138 +10695,3162 @@
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>498</v>
+      <c r="A26" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>56</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" ht="29.55" spans="1:6">
-      <c r="A27" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>500</v>
+    <row r="27" ht="15.15" spans="1:6">
+      <c r="A27" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" ht="28.8" spans="1:2">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" ht="28.8" spans="1:2">
+      <c r="A57" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="56"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="61"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="56"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="56"/>
+    </row>
+    <row r="77" ht="15.15" spans="1:2">
+      <c r="A77" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="63"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" s="56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" s="56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="56"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" s="56"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" s="56"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="56"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" s="56"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="56"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="56"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="56"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="56"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" s="65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B119" s="64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B120" s="64" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" s="64" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B123" s="64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" s="64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="64" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" s="64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" s="64" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" s="64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" s="64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" s="64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" s="64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" s="64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" s="64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B139" s="64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" s="64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" s="64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" s="64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" s="64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" s="64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B145" s="64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B146" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" s="56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" s="56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" s="56" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" s="56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B152" s="56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" s="56"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B154" s="56"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" s="56"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B156" s="56"/>
+    </row>
+    <row r="157" ht="15.15" spans="1:2">
+      <c r="A157" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B157" s="63"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B158" s="55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="B159" s="55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B160" s="55" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B161" s="55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B162" s="55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B163" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="B164" s="55" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="B165" s="55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="B166" s="55"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B167" s="55"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B168" s="55"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B169" s="55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B170" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B171" s="55" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="B172" s="55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="B173" s="55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B174" s="55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B175" s="55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B176" s="55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="B177" s="55"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="B178" s="55"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="B179" s="55"/>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B180" s="55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B181" s="55"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="B182" s="55"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B183" s="55"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B184" s="55"/>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B185" s="55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B186" s="55" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B187" s="55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" s="55" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="B189" s="56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B190" s="56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B191" s="56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B192" s="55" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="B193" s="55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="B194" s="55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B195" s="55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B196" s="55" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B197" s="55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="B198" s="55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="B199" s="55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="B200" s="55"/>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="B201" s="55"/>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B202" s="55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="B203" s="55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B204" s="55" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="B205" s="55" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="B206" s="55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="B207" s="55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="B208" s="55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="B209" s="55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="B210" s="55"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="B211" s="55"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="B212" s="55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="B213" s="55" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="B214" s="55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="B215" s="55" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="B216" s="55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="B217" s="55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="B218" s="54"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="B219" s="55"/>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="B220" s="54"/>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="B221" s="54"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="B222" s="57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="B223" s="57">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="B224" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="B225" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="B226" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="B227" s="57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="B228" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="B229" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="B230" s="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B231" s="57"/>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="B232" s="57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="B233" s="57">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="B234" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="B235" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="B236" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="B237" s="57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="B238" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="B239" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="B240" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="B241" s="66"/>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="54" t="s">
+        <v>426</v>
+      </c>
+      <c r="B242" s="57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="B243" s="57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="B244" s="57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="B245" s="57">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="B246" s="57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="B247" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="B248" s="57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="B249" s="57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="B250" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="B251" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="B252" s="67"/>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="B253" s="57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="B254" s="57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="B255" s="57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="B256" s="57">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="B257" s="57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="B258" s="57">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="B259" s="57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="B260" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="B261" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B262" s="56"/>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="B263" s="57"/>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="54" t="s">
+        <v>453</v>
+      </c>
+      <c r="B264" s="57"/>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="B265" s="57"/>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="B266" s="57"/>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="54" t="s">
+        <v>456</v>
+      </c>
+      <c r="B267" s="56"/>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="B268" s="68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="B269" s="68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="B270" s="64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="B271" s="69" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="54" t="s">
+        <v>467</v>
+      </c>
+      <c r="B272" s="65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="B273" s="65" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="54" t="s">
+        <v>471</v>
+      </c>
+      <c r="B274" s="65" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="B275" s="65" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="B276" s="65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="B277" s="65" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="B278" s="65"/>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="B279" s="65"/>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="B280" s="65"/>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="B281" s="65"/>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="B282" s="65"/>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="B283" s="65"/>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="B284" s="70"/>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="B285" s="65"/>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="B286" s="65"/>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="B287" s="65"/>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="B288" s="64" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="B289" s="64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="B290" s="65" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="B291" s="65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="B292" s="64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="B293" s="64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="294" ht="28.8" spans="1:2">
+      <c r="A294" s="54" t="s">
         <v>501</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B294" s="71" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:2">
-      <c r="A29" s="27" t="s">
+    <row r="295" ht="28.8" spans="1:2">
+      <c r="A295" s="54" t="s">
         <v>503</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B295" s="71" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="27" t="s">
+    <row r="296" ht="28.8" spans="1:2">
+      <c r="A296" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B296" s="72" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="27" t="s">
+    <row r="297" spans="1:2">
+      <c r="A297" s="54" t="s">
         <v>507</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B297" s="72" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="27" t="s">
+    <row r="298" spans="1:2">
+      <c r="A298" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B298" s="64" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="27" t="s">
+    <row r="299" spans="1:2">
+      <c r="A299" s="54" t="s">
         <v>511</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B299" s="64" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="27" t="s">
+    <row r="300" spans="1:2">
+      <c r="A300" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B300" s="64" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="27" t="s">
+    <row r="301" spans="1:2">
+      <c r="A301" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B301" s="64" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="27" t="s">
+    <row r="302" spans="1:2">
+      <c r="A302" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B302" s="64" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="27" t="s">
+    <row r="303" spans="1:2">
+      <c r="A303" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B303" s="64" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="27" t="s">
+    <row r="304" spans="1:2">
+      <c r="A304" s="54" t="s">
         <v>521</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B304" s="64" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="27" t="s">
+    <row r="305" spans="1:2">
+      <c r="A305" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B305" s="64" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="27" t="s">
+    <row r="306" spans="1:2">
+      <c r="A306" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B306" s="64" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="41" ht="28.8" spans="1:2">
-      <c r="A41" s="27" t="s">
+    <row r="307" spans="1:2">
+      <c r="A307" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B307" s="64" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="27" t="s">
+    <row r="308" ht="28.8" spans="1:2">
+      <c r="A308" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="B42" s="28"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="27" t="s">
+      <c r="B308" s="72" t="s">
         <v>530</v>
       </c>
-      <c r="B43" s="28"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="27" t="s">
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="54" t="s">
         <v>531</v>
       </c>
-      <c r="B44" s="28"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="27" t="s">
+      <c r="B309" s="65"/>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="54" t="s">
         <v>532</v>
       </c>
-      <c r="B45" s="28"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="27" t="s">
+      <c r="B310" s="65"/>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="54" t="s">
         <v>533</v>
       </c>
-      <c r="B46" s="28"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="27" t="s">
+      <c r="B311" s="65"/>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="B47" s="29"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="27" t="s">
+      <c r="B312" s="65"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="54" t="s">
         <v>535</v>
       </c>
-      <c r="B48" s="28"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="27" t="s">
+      <c r="B313" s="65"/>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="B49" s="29"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="27" t="s">
+      <c r="B314" s="70"/>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="54" t="s">
         <v>537</v>
       </c>
-      <c r="B50" s="29"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="27" t="s">
+      <c r="B315" s="65"/>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="54" t="s">
         <v>538</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B316" s="70"/>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="54" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="27" t="s">
+      <c r="B317" s="70"/>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B318" s="65" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="27" t="s">
+    <row r="319" spans="1:2">
+      <c r="A319" s="54" t="s">
         <v>542</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B319" s="65" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="27" t="s">
+    <row r="320" spans="1:2">
+      <c r="A320" s="54" t="s">
         <v>544</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B320" s="65" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="27" t="s">
+    <row r="321" spans="1:2">
+      <c r="A321" s="54" t="s">
         <v>546</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B321" s="64" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="27" t="s">
+    <row r="322" spans="1:2">
+      <c r="A322" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B322" s="65" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="27" t="s">
+    <row r="323" spans="1:2">
+      <c r="A323" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B323" s="64" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="27" t="s">
+    <row r="324" spans="1:2">
+      <c r="A324" s="54" t="s">
         <v>552</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B324" s="64" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="27" t="s">
+    <row r="325" spans="1:2">
+      <c r="A325" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B325" s="64" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="27" t="s">
+    <row r="326" spans="1:2">
+      <c r="A326" s="54" t="s">
         <v>556</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B326" s="64" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="27" t="s">
+    <row r="327" spans="1:2">
+      <c r="A327" s="54" t="s">
         <v>558</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B327" s="65" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="27" t="s">
+    <row r="328" spans="1:2">
+      <c r="A328" s="54" t="s">
         <v>560</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B328" s="72" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="27" t="s">
+    <row r="329" spans="1:2">
+      <c r="A329" s="54" t="s">
         <v>562</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B329" s="73" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="27" t="s">
+    <row r="330" spans="1:2">
+      <c r="A330" s="54" t="s">
         <v>564</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B330" s="74" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="27" t="s">
+    <row r="331" spans="1:2">
+      <c r="A331" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B331" s="74" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="27" t="s">
+    <row r="332" spans="1:2">
+      <c r="A332" s="54" t="s">
         <v>568</v>
       </c>
-      <c r="B66" s="51"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="27" t="s">
+      <c r="B332" s="74" t="s">
         <v>569</v>
       </c>
-      <c r="B67" s="25"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="27" t="s">
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="54" t="s">
         <v>570</v>
       </c>
-      <c r="B68" s="25"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="27" t="s">
+      <c r="B333" s="74"/>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="B69" s="25"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="27" t="s">
+      <c r="B334" s="64"/>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="54" t="s">
         <v>572</v>
       </c>
-      <c r="B70" s="25"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="27" t="s">
+      <c r="B335" s="64"/>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="54" t="s">
         <v>573</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B336" s="64"/>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="54" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="27" t="s">
+      <c r="B337" s="64"/>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="54" t="s">
         <v>575</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B338" s="65" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="27" t="s">
+    <row r="339" spans="1:2">
+      <c r="A339" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B339" s="65" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="27" t="s">
+    <row r="340" spans="1:2">
+      <c r="A340" s="54" t="s">
         <v>579</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B340" s="65" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="27" t="s">
+    <row r="341" spans="1:2">
+      <c r="A341" s="54" t="s">
         <v>581</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B341" s="65" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="27" t="s">
+    <row r="342" spans="1:2">
+      <c r="A342" s="54" t="s">
         <v>583</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B342" s="65" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="27" t="s">
+    <row r="343" spans="1:2">
+      <c r="A343" s="54" t="s">
         <v>585</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B343" s="65" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="27" t="s">
+    <row r="344" spans="1:2">
+      <c r="A344" s="54" t="s">
         <v>587</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B344" s="64" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="27" t="s">
+    <row r="345" spans="1:2">
+      <c r="A345" s="54" t="s">
         <v>589</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B345" s="64" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="27" t="s">
+    <row r="346" spans="1:2">
+      <c r="A346" s="54" t="s">
         <v>591</v>
       </c>
-      <c r="B80" s="26"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="27" t="s">
+      <c r="B346" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="B81" s="25"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="27" t="s">
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="54" t="s">
         <v>593</v>
       </c>
-      <c r="B82" s="25"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="27" t="s">
+      <c r="B347" s="72"/>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="B83" s="25"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="27" t="s">
+      <c r="B348" s="64"/>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="54" t="s">
         <v>595</v>
       </c>
-      <c r="B84" s="25"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="27" t="s">
+      <c r="B349" s="64"/>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="54" t="s">
         <v>596</v>
       </c>
-      <c r="B85" s="25"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="27" t="s">
+      <c r="B350" s="64"/>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="B86" s="25"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="27" t="s">
+      <c r="B351" s="64"/>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="54" t="s">
         <v>598</v>
       </c>
-      <c r="B87" s="25"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="27" t="s">
+      <c r="B352" s="64"/>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="54" t="s">
         <v>599</v>
       </c>
-      <c r="B88" s="25"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="27" t="s">
+      <c r="B353" s="64"/>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="B89" s="25"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="27" t="s">
+      <c r="B354" s="64"/>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="54" t="s">
         <v>601</v>
       </c>
-      <c r="B90" s="26"/>
-    </row>
-    <row r="91" ht="28.8" spans="1:2">
-      <c r="A91" s="20" t="s">
+      <c r="B355" s="64"/>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="54" t="s">
         <v>602</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B356" s="64"/>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="54" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="20" t="s">
+      <c r="B357" s="72"/>
+    </row>
+    <row r="358" ht="28.8" spans="1:2">
+      <c r="A358" s="58" t="s">
         <v>604</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B358" s="72" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="93" ht="28.8" spans="1:2">
-      <c r="A93" s="20" t="s">
+    <row r="359" spans="1:2">
+      <c r="A359" s="58" t="s">
         <v>606</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B359" s="64" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="20" t="s">
+    <row r="360" ht="28.8" spans="1:2">
+      <c r="A360" s="58" t="s">
         <v>608</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B360" s="71" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="20" t="s">
+    <row r="361" spans="1:2">
+      <c r="A361" s="58" t="s">
         <v>610</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B361" s="65" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="20" t="s">
+    <row r="362" spans="1:2">
+      <c r="A362" s="58" t="s">
         <v>612</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B362" s="65" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="20" t="s">
+    <row r="363" spans="1:2">
+      <c r="A363" s="58" t="s">
         <v>614</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B363" s="65" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="20" t="s">
+    <row r="364" spans="1:2">
+      <c r="A364" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B364" s="65" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="20" t="s">
+    <row r="365" spans="1:2">
+      <c r="A365" s="58" t="s">
         <v>618</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B365" s="64" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="20" t="s">
+    <row r="366" spans="1:2">
+      <c r="A366" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="B100" s="26"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="20" t="s">
+      <c r="B366" s="65" t="s">
         <v>621</v>
       </c>
-      <c r="B101" s="25"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="20" t="s">
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="58" t="s">
         <v>622</v>
       </c>
-      <c r="B102" s="25"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="20" t="s">
+      <c r="B367" s="72"/>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="58" t="s">
         <v>623</v>
       </c>
-      <c r="B103" s="25"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="20" t="s">
+      <c r="B368" s="64"/>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="58" t="s">
         <v>624</v>
       </c>
-      <c r="B104" s="25"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="20" t="s">
+      <c r="B369" s="64"/>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="58" t="s">
         <v>625</v>
       </c>
-      <c r="B105" s="25"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="27" t="s">
+      <c r="B370" s="64"/>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="B106" s="25"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="27" t="s">
+      <c r="B371" s="64"/>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="B107" s="25"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="27" t="s">
+      <c r="B372" s="64"/>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="54" t="s">
         <v>628</v>
       </c>
-      <c r="B108" s="25"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="27" t="s">
+      <c r="B373" s="64"/>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="B109" s="25"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="27" t="s">
+      <c r="B374" s="64"/>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="54" t="s">
         <v>630</v>
       </c>
-      <c r="B110" s="26"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="27" t="s">
+      <c r="B375" s="64"/>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="54" t="s">
         <v>631</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="B376" s="64"/>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="54" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="27" t="s">
+      <c r="B377" s="72"/>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="B378" s="65" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="27" t="s">
+    <row r="379" spans="1:2">
+      <c r="A379" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B379" s="65" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="27" t="s">
+    <row r="380" spans="1:2">
+      <c r="A380" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="B114" s="28" t="s">
+      <c r="B380" s="65" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="27" t="s">
+    <row r="381" spans="1:2">
+      <c r="A381" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="B115" s="28" t="s">
+      <c r="B381" s="65" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="27" t="s">
+    <row r="382" spans="1:2">
+      <c r="A382" s="54" t="s">
         <v>641</v>
       </c>
-      <c r="B116" s="28"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="27" t="s">
+      <c r="B382" s="65" t="s">
         <v>642</v>
       </c>
-      <c r="B117" s="28"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="27" t="s">
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="54" t="s">
         <v>643</v>
       </c>
-      <c r="B118" s="25"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="27" t="s">
+      <c r="B383" s="65"/>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="54" t="s">
         <v>644</v>
       </c>
-      <c r="B119" s="28"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="27" t="s">
+      <c r="B384" s="65"/>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B120" s="26"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="27" t="s">
+      <c r="B385" s="64"/>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="54" t="s">
         <v>646</v>
       </c>
-      <c r="B121" s="25"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="27" t="s">
+      <c r="B386" s="65"/>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="B122" s="25"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="27" t="s">
+      <c r="B387" s="72"/>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="54" t="s">
         <v>648</v>
       </c>
-      <c r="B123" s="25"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="27" t="s">
+      <c r="B388" s="64"/>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="54" t="s">
         <v>649</v>
       </c>
-      <c r="B124" s="25"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="27" t="s">
+      <c r="B389" s="64"/>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="54" t="s">
         <v>650</v>
       </c>
-      <c r="B125" s="25"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="27" t="s">
+      <c r="B390" s="64"/>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="B126" s="25"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="27" t="s">
+      <c r="B391" s="64"/>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="54" t="s">
         <v>652</v>
       </c>
-      <c r="B127" s="25"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="27" t="s">
+      <c r="B392" s="64"/>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="54" t="s">
         <v>653</v>
       </c>
-      <c r="B128" s="25"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="27" t="s">
+      <c r="B393" s="64"/>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="54" t="s">
         <v>654</v>
       </c>
-      <c r="B129" s="25"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="27" t="s">
+      <c r="B394" s="64"/>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="54" t="s">
         <v>655</v>
       </c>
-      <c r="B130" s="26"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="20" t="s">
+      <c r="B395" s="64"/>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="54" t="s">
         <v>656</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B396" s="64"/>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="54" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="132" ht="28.8" spans="1:2">
-      <c r="A132" s="20" t="s">
+      <c r="B397" s="72"/>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="58" t="s">
         <v>658</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B398" s="55" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="133" ht="28.8" spans="1:2">
-      <c r="A133" s="20" t="s">
+    <row r="399" ht="28.8" spans="1:2">
+      <c r="A399" s="58" t="s">
         <v>660</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B399" s="75" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="27" t="s">
+    <row r="400" ht="28.8" spans="1:2">
+      <c r="A400" s="58" t="s">
         <v>662</v>
       </c>
-      <c r="B134" s="28"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="27" t="s">
+      <c r="B400" s="75" t="s">
         <v>663</v>
       </c>
-      <c r="B135" s="28"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="27" t="s">
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="B136" s="28"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="27" t="s">
+      <c r="B401" s="65"/>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="B137" s="28"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="27" t="s">
+      <c r="B402" s="65"/>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="54" t="s">
         <v>666</v>
       </c>
-      <c r="B138" s="25"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="27" t="s">
+      <c r="B403" s="65"/>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="54" t="s">
         <v>667</v>
       </c>
-      <c r="B139" s="28"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="27" t="s">
+      <c r="B404" s="65"/>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="54" t="s">
         <v>668</v>
       </c>
-      <c r="B140" s="26"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="27" t="s">
+      <c r="B405" s="64"/>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="54" t="s">
         <v>669</v>
       </c>
-      <c r="B141" s="25"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="27" t="s">
+      <c r="B406" s="65"/>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="54" t="s">
         <v>670</v>
       </c>
-      <c r="B142" s="25"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="27" t="s">
+      <c r="B407" s="72"/>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="54" t="s">
         <v>671</v>
       </c>
-      <c r="B143" s="25"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="27" t="s">
+      <c r="B408" s="64"/>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="54" t="s">
         <v>672</v>
       </c>
-      <c r="B144" s="25"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="27" t="s">
+      <c r="B409" s="64"/>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="54" t="s">
         <v>673</v>
       </c>
-      <c r="B145" s="25"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="27" t="s">
+      <c r="B410" s="64"/>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="54" t="s">
         <v>674</v>
       </c>
-      <c r="B146" s="25"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="27" t="s">
+      <c r="B411" s="64"/>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="54" t="s">
         <v>675</v>
       </c>
-      <c r="B147" s="25"/>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="27" t="s">
+      <c r="B412" s="64"/>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="54" t="s">
         <v>676</v>
       </c>
-      <c r="B148" s="25"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="27" t="s">
+      <c r="B413" s="64"/>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="54" t="s">
         <v>677</v>
       </c>
-      <c r="B149" s="25"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="27" t="s">
+      <c r="B414" s="64"/>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="54" t="s">
         <v>678</v>
       </c>
-      <c r="B150" s="26"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="20" t="s">
+      <c r="B415" s="64"/>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="54" t="s">
         <v>679</v>
       </c>
-      <c r="B151" s="35" t="s">
+      <c r="B416" s="64"/>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="54" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="20" t="s">
+      <c r="B417" s="72"/>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="58" t="s">
         <v>681</v>
       </c>
-      <c r="B152" s="35" t="s">
+      <c r="B418" s="71" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="20" t="s">
+    <row r="419" spans="1:2">
+      <c r="A419" s="58" t="s">
         <v>683</v>
       </c>
-      <c r="B153" s="25" t="s">
+      <c r="B419" s="71" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="27" t="s">
+    <row r="420" spans="1:2">
+      <c r="A420" s="58" t="s">
         <v>685</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B420" s="64" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="27" t="s">
+    <row r="421" spans="1:2">
+      <c r="A421" s="54" t="s">
         <v>687</v>
       </c>
-      <c r="B155" s="25" t="s">
+      <c r="B421" s="65" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="27" t="s">
+    <row r="422" spans="1:2">
+      <c r="A422" s="54" t="s">
         <v>689</v>
       </c>
-      <c r="B156" s="28"/>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="27" t="s">
+      <c r="B422" s="64" t="s">
         <v>690</v>
       </c>
-      <c r="B157" s="25"/>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="27" t="s">
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="54" t="s">
         <v>691</v>
       </c>
-      <c r="B158" s="28"/>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="27" t="s">
+      <c r="B423" s="65"/>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="54" t="s">
         <v>692</v>
       </c>
-      <c r="B159" s="26"/>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="27" t="s">
+      <c r="B424" s="64"/>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="54" t="s">
         <v>693</v>
       </c>
-      <c r="B160" s="25"/>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="27" t="s">
+      <c r="B425" s="65"/>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="54" t="s">
         <v>694</v>
       </c>
-      <c r="B161" s="25"/>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="27" t="s">
+      <c r="B426" s="72"/>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="54" t="s">
         <v>695</v>
       </c>
-      <c r="B162" s="25"/>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="27" t="s">
+      <c r="B427" s="64"/>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="54" t="s">
         <v>696</v>
       </c>
-      <c r="B163" s="25"/>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="27" t="s">
+      <c r="B428" s="64"/>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="54" t="s">
         <v>697</v>
       </c>
-      <c r="B164" s="25"/>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="27" t="s">
+      <c r="B429" s="64"/>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="54" t="s">
         <v>698</v>
       </c>
-      <c r="B165" s="25"/>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="27" t="s">
+      <c r="B430" s="64"/>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="54" t="s">
         <v>699</v>
       </c>
-      <c r="B166" s="25"/>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="27" t="s">
+      <c r="B431" s="64"/>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="54" t="s">
         <v>700</v>
       </c>
-      <c r="B167" s="25"/>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="27" t="s">
+      <c r="B432" s="64"/>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="54" t="s">
         <v>701</v>
       </c>
-      <c r="B168" s="25"/>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="27" t="s">
+      <c r="B433" s="64"/>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="54" t="s">
         <v>702</v>
       </c>
-      <c r="B169" s="26"/>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="27" t="s">
+      <c r="B434" s="64"/>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="54" t="s">
         <v>703</v>
       </c>
-      <c r="B170" s="28"/>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="20" t="s">
+      <c r="B435" s="64"/>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="54" t="s">
         <v>704</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B436" s="72"/>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="54" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="20" t="s">
+      <c r="B437" s="65"/>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="58" t="s">
         <v>706</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B438" s="75" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="20" t="s">
+    <row r="439" spans="1:2">
+      <c r="A439" s="58" t="s">
         <v>708</v>
       </c>
-      <c r="B173" s="26" t="s">
+      <c r="B439" s="64" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="27" t="s">
+    <row r="440" spans="1:2">
+      <c r="A440" s="58" t="s">
         <v>710</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B440" s="72" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="27" t="s">
+    <row r="441" spans="1:2">
+      <c r="A441" s="54" t="s">
         <v>712</v>
       </c>
-      <c r="B175" s="28" t="s">
+      <c r="B441" s="64" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="27" t="s">
+    <row r="442" spans="1:2">
+      <c r="A442" s="54" t="s">
         <v>714</v>
       </c>
-      <c r="B176" s="28" t="s">
+      <c r="B442" s="65" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="27" t="s">
+    <row r="443" spans="1:2">
+      <c r="A443" s="54" t="s">
         <v>716</v>
       </c>
-      <c r="B177" s="28"/>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="27" t="s">
+      <c r="B443" s="65" t="s">
         <v>717</v>
       </c>
-      <c r="B178" s="25"/>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="27" t="s">
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="54" t="s">
         <v>718</v>
       </c>
-      <c r="B179" s="28"/>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="27" t="s">
+      <c r="B444" s="65"/>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="54" t="s">
         <v>719</v>
       </c>
-      <c r="B180" s="26"/>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="27" t="s">
+      <c r="B445" s="64"/>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="54" t="s">
         <v>720</v>
       </c>
-      <c r="B181" s="25"/>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="27" t="s">
+      <c r="B446" s="65"/>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="54" t="s">
         <v>721</v>
       </c>
-      <c r="B182" s="25"/>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="27" t="s">
+      <c r="B447" s="72"/>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="54" t="s">
         <v>722</v>
       </c>
-      <c r="B183" s="25"/>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="27" t="s">
+      <c r="B448" s="64"/>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="54" t="s">
         <v>723</v>
       </c>
-      <c r="B184" s="25"/>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="27" t="s">
+      <c r="B449" s="64"/>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="54" t="s">
         <v>724</v>
       </c>
-      <c r="B185" s="25"/>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="27" t="s">
+      <c r="B450" s="64"/>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="54" t="s">
         <v>725</v>
       </c>
-      <c r="B186" s="25"/>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="27" t="s">
+      <c r="B451" s="64"/>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="54" t="s">
         <v>726</v>
       </c>
-      <c r="B187" s="25"/>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="27" t="s">
+      <c r="B452" s="64"/>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="54" t="s">
         <v>727</v>
       </c>
-      <c r="B188" s="25"/>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="27" t="s">
+      <c r="B453" s="64"/>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="54" t="s">
         <v>728</v>
       </c>
-      <c r="B189" s="25"/>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="27" t="s">
+      <c r="B454" s="64"/>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="54" t="s">
         <v>729</v>
       </c>
-      <c r="B190" s="26"/>
+      <c r="B455" s="64"/>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="B456" s="64"/>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="B457" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11774,7 +13944,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -11786,10 +13956,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -11801,10 +13971,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -11816,10 +13986,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -11831,10 +14001,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -11846,10 +14016,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -11861,10 +14031,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -11876,10 +14046,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -11891,10 +14061,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -11906,10 +14076,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -11921,10 +14091,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -11936,10 +14106,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -11951,10 +14121,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -11966,10 +14136,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -11981,10 +14151,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -11996,10 +14166,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -12011,10 +14181,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -12026,10 +14196,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -12041,10 +14211,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -12056,10 +14226,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -12071,10 +14241,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -12086,10 +14256,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -12101,7 +14271,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="22"/>
@@ -12114,7 +14284,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="22"/>
@@ -12127,7 +14297,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="22"/>
@@ -12140,7 +14310,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="22"/>
@@ -12153,7 +14323,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="22"/>
@@ -12166,7 +14336,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="22"/>
@@ -12179,7 +14349,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="22"/>
@@ -12192,7 +14362,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="22"/>
@@ -12205,7 +14375,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="22"/>
@@ -12352,7 +14522,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -12364,10 +14534,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -12379,10 +14549,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -12394,10 +14564,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -12409,10 +14579,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -12424,10 +14594,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -12439,10 +14609,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -12454,10 +14624,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -12469,10 +14639,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -12484,10 +14654,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -12499,10 +14669,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -12514,10 +14684,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -12529,10 +14699,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -12544,10 +14714,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -12559,10 +14729,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -12574,10 +14744,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -12589,7 +14759,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="22"/>
@@ -12602,7 +14772,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -12615,7 +14785,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -12628,7 +14798,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -12641,7 +14811,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="22"/>
@@ -12815,7 +14985,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -12827,10 +14997,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -12842,10 +15012,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -12857,10 +15027,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -12872,10 +15042,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -12887,10 +15057,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -12902,10 +15072,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -12917,10 +15087,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -12932,10 +15102,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -12947,10 +15117,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -12962,7 +15132,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -12975,7 +15145,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -12988,7 +15158,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -13001,7 +15171,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -13014,7 +15184,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -13027,7 +15197,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -13040,7 +15210,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -13053,7 +15223,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -13066,7 +15236,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -13079,7 +15249,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -13092,7 +15262,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -13257,7 +15427,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -13269,10 +15439,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -13284,10 +15454,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -13299,10 +15469,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -13314,10 +15484,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -13329,10 +15499,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -13344,10 +15514,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -13359,10 +15529,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -13374,10 +15544,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -13389,10 +15559,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -13404,7 +15574,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -13417,7 +15587,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -13430,7 +15600,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -13443,7 +15613,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -13456,7 +15626,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -13469,7 +15639,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -13482,7 +15652,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -13495,7 +15665,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -13508,7 +15678,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -13521,7 +15691,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -13534,7 +15704,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>

--- a/static/csv.xlsx
+++ b/static/csv.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="738">
   <si>
     <t>RAVI RAJ ANODISERS</t>
   </si>
@@ -1468,68 +1468,6 @@
     <t>RRA250</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Transparent Tape </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>½</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brown Tape </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>½</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t>RRA251</t>
   </si>
   <si>
@@ -2383,7 +2321,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2410,13 +2348,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2573,12 +2504,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3336,13 +3261,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3351,118 +3279,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3597,68 +3522,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3685,18 +3610,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3708,12 +3633,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5379,7 +5304,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -5391,10 +5316,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -5406,10 +5331,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -5421,10 +5346,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -5436,10 +5361,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -5451,10 +5376,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -5466,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="22"/>
@@ -5479,7 +5404,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="22"/>
@@ -5492,7 +5417,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="22"/>
@@ -5505,7 +5430,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="22"/>
@@ -5518,7 +5443,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -5531,7 +5456,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -5544,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -5557,7 +5482,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -5570,7 +5495,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -5583,7 +5508,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -5596,7 +5521,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -5609,7 +5534,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -5622,7 +5547,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -5635,7 +5560,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -5648,7 +5573,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -5804,7 +5729,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -5816,10 +5741,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -5831,10 +5756,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -5846,10 +5771,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -5861,7 +5786,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="22"/>
@@ -5874,7 +5799,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="22"/>
@@ -5887,7 +5812,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="22"/>
@@ -5900,7 +5825,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="22"/>
@@ -5913,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="22"/>
@@ -5926,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="22"/>
@@ -5939,7 +5864,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -5952,7 +5877,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -5965,7 +5890,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -5978,7 +5903,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -5991,7 +5916,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -6004,7 +5929,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -6017,7 +5942,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -6030,7 +5955,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -6043,7 +5968,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -6056,7 +5981,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -6069,7 +5994,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -6233,7 +6158,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6245,10 +6170,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6260,10 +6185,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -6275,10 +6200,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -6290,10 +6215,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -6305,10 +6230,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -6320,7 +6245,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="22"/>
@@ -6333,7 +6258,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="22"/>
@@ -6346,7 +6271,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="22"/>
@@ -6359,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="22"/>
@@ -6372,7 +6297,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="22"/>
@@ -6385,7 +6310,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -6398,7 +6323,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -6411,7 +6336,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -6424,7 +6349,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -6437,7 +6362,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -6450,7 +6375,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -6463,7 +6388,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -6476,7 +6401,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -6489,7 +6414,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="22"/>
@@ -6502,7 +6427,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="22"/>
@@ -6667,7 +6592,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6679,10 +6604,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6694,10 +6619,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -6709,10 +6634,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -6724,10 +6649,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -6739,10 +6664,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -6754,10 +6679,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -6769,7 +6694,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="22"/>
@@ -6782,7 +6707,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="22"/>
@@ -6795,7 +6720,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="22"/>
@@ -6808,7 +6733,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -6821,7 +6746,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -6834,7 +6759,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -6847,7 +6772,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -6860,7 +6785,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -6873,7 +6798,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -6886,7 +6811,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -6899,7 +6824,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -6912,7 +6837,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -6925,7 +6850,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -6938,7 +6863,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -10378,10 +10303,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F457"/>
+  <dimension ref="A2:F458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B457"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -10394,24 +10319,12 @@
     <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="52" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B2" s="53" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -10420,10 +10333,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -10432,10 +10345,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -10444,10 +10357,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -10456,10 +10369,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -10468,10 +10381,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -10480,10 +10393,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -10492,10 +10405,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -10504,10 +10417,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -10516,10 +10429,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -10528,10 +10441,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -10540,10 +10453,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -10552,10 +10465,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -10564,10 +10477,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -10576,10 +10489,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -10588,10 +10501,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -10600,10 +10513,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -10612,10 +10525,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -10624,10 +10537,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -10636,10 +10549,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -10648,10 +10561,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -10660,10 +10573,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -10672,10 +10585,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -10684,10 +10597,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -10696,42 +10609,46 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" ht="15.15" spans="1:6">
+    <row r="27" spans="1:6">
       <c r="A27" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" ht="15.15" spans="1:6">
+      <c r="A28" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B28" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>58</v>
-      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10739,3118 +10656,3126 @@
         <v>37</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="54" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B57" s="56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" ht="28.8" spans="1:2">
-      <c r="A57" s="58" t="s">
+    <row r="58" ht="28.8" spans="1:2">
+      <c r="A58" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B58" s="59" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="56"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="60" t="s">
+      <c r="B74" s="56"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="61"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="61"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="56"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="56"/>
-    </row>
-    <row r="77" ht="15.15" spans="1:2">
-      <c r="A77" s="62" t="s">
+      <c r="B77" s="56"/>
+    </row>
+    <row r="78" ht="15.15" spans="1:2">
+      <c r="A78" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="63"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="52" t="s">
+      <c r="B78" s="63"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="56" t="s">
+      <c r="B79" s="56" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="64" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B80" s="64" t="s">
-        <v>457</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B81" s="64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B82" s="64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B84" s="64" t="s">
-        <v>458</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B85" s="64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="55" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B94" s="55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="B95" s="56" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="B95" s="55" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="B97" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B98" s="57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" s="56" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="B100" s="57" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B101" s="56" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B102" s="56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B103" s="56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B104" s="56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B105" s="56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B106" s="56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B107" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B108" s="56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="B109" s="56"/>
+        <v>201</v>
+      </c>
+      <c r="B109" s="56" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B110" s="56"/>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B111" s="56"/>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" s="56"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B113" s="56"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B114" s="56"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B115" s="56"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B116" s="56"/>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="56"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="B117" s="56"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B118" s="65" t="s">
-        <v>213</v>
-      </c>
+      <c r="B118" s="56"/>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="B119" s="64" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="B119" s="65" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B121" s="64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B122" s="64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B123" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B124" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B125" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B126" s="64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B127" s="64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B128" s="64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B129" s="64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B130" s="64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B131" s="64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B132" s="64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B133" s="64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B134" s="64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B135" s="64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B136" s="64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B137" s="64" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B138" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B139" s="64" t="s">
+      <c r="B140" s="64" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="B140" s="64" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B141" s="64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B142" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B143" s="64" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B144" s="64" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B145" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B146" s="64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="B147" s="56" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="B147" s="64" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B148" s="56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B149" s="56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B150" s="56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B151" s="56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B152" s="56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="B153" s="56"/>
+        <v>280</v>
+      </c>
+      <c r="B153" s="56" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B154" s="56"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B155" s="56"/>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B156" s="56"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="B156" s="56"/>
-    </row>
-    <row r="157" ht="15.15" spans="1:2">
-      <c r="A157" s="62" t="s">
+      <c r="B157" s="56"/>
+    </row>
+    <row r="158" ht="15.15" spans="1:2">
+      <c r="A158" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="B157" s="63"/>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="B158" s="55" t="s">
-        <v>289</v>
-      </c>
+      <c r="B158" s="63"/>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="54" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B159" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="54" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B160" s="55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B161" s="55" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B162" s="55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B163" s="55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B164" s="55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="54" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B165" s="55" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="B166" s="55"/>
+        <v>302</v>
+      </c>
+      <c r="B166" s="55" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B167" s="55"/>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B168" s="55"/>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="B169" s="55" t="s">
-        <v>309</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B169" s="55"/>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="54" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B170" s="55" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B171" s="55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B172" s="55" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B173" s="55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="54" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B174" s="55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B175" s="55" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="54" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B176" s="55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="B177" s="55"/>
+        <v>322</v>
+      </c>
+      <c r="B177" s="55" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B178" s="55"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B179" s="55"/>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="B180" s="55" t="s">
-        <v>328</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B180" s="55"/>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="B181" s="55"/>
+        <v>327</v>
+      </c>
+      <c r="B181" s="55" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B182" s="55"/>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B183" s="55"/>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B184" s="55"/>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="54" t="s">
-        <v>333</v>
-      </c>
-      <c r="B185" s="55" t="s">
-        <v>334</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B185" s="55"/>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B186" s="55" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B187" s="55" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B188" s="55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="B189" s="56" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+      <c r="B189" s="55" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B190" s="56" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B191" s="56" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="B192" s="55" t="s">
-        <v>350</v>
+        <v>346</v>
+      </c>
+      <c r="B192" s="56" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="54" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B193" s="55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="54" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B194" s="55" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="54" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B195" s="55" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B196" s="55" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="54" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B197" s="55" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B198" s="55" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="54" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B199" s="55" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="B200" s="55"/>
+        <v>363</v>
+      </c>
+      <c r="B200" s="55" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B201" s="55"/>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="B202" s="55" t="s">
-        <v>369</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B202" s="55"/>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="54" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B203" s="55" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="54" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B204" s="55" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="54" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B205" s="55" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="54" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B206" s="55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B207" s="55" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B208" s="55" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="54" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B209" s="55" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="54" t="s">
-        <v>384</v>
-      </c>
-      <c r="B210" s="55"/>
+        <v>382</v>
+      </c>
+      <c r="B210" s="55" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B211" s="55"/>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="B212" s="55" t="s">
-        <v>388</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B212" s="55"/>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="54" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B213" s="55" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="54" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B214" s="55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B215" s="55" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="54" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B216" s="55" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B217" s="55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="B218" s="54"/>
+        <v>397</v>
+      </c>
+      <c r="B218" s="55" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="54" t="s">
-        <v>400</v>
-      </c>
-      <c r="B219" s="55"/>
+        <v>399</v>
+      </c>
+      <c r="B219" s="54"/>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="B220" s="54"/>
+        <v>400</v>
+      </c>
+      <c r="B220" s="55"/>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B221" s="54"/>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="54" t="s">
-        <v>404</v>
-      </c>
-      <c r="B222" s="57">
-        <v>0.5</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B222" s="54"/>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B223" s="57">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B224" s="57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B225" s="57">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B226" s="57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B227" s="57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B228" s="57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B229" s="57">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B230" s="57">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="54" t="s">
-        <v>413</v>
-      </c>
-      <c r="B231" s="57"/>
+        <v>412</v>
+      </c>
+      <c r="B231" s="57">
+        <v>8</v>
+      </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="B232" s="57">
-        <v>0.5</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B232" s="57"/>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B233" s="57">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B234" s="57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B235" s="57">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B236" s="57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B237" s="57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B238" s="57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="54" t="s">
-        <v>422</v>
-      </c>
-      <c r="B239" s="66">
-        <v>4</v>
+        <v>421</v>
+      </c>
+      <c r="B239" s="57">
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B240" s="66">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="B241" s="66"/>
+        <v>423</v>
+      </c>
+      <c r="B241" s="66">
+        <v>8</v>
+      </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="54" t="s">
-        <v>426</v>
-      </c>
-      <c r="B242" s="57">
-        <v>0.1</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B242" s="66"/>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B243" s="57">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B244" s="57">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="54" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B245" s="57">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B246" s="57">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="B247" s="57" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="B247" s="57">
+        <v>0.5</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B248" s="57" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="54" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B249" s="57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="B250" s="67">
-        <v>3</v>
+        <v>435</v>
+      </c>
+      <c r="B250" s="57" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B251" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="54" t="s">
-        <v>439</v>
-      </c>
-      <c r="B252" s="67"/>
+        <v>438</v>
+      </c>
+      <c r="B252" s="67">
+        <v>4</v>
+      </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="54" t="s">
-        <v>441</v>
-      </c>
-      <c r="B253" s="57">
-        <v>0.1</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B253" s="67"/>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B254" s="57">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B255" s="57">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B256" s="57">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B257" s="57">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B258" s="57">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="B259" s="57" t="s">
-        <v>448</v>
+        <v>446</v>
+      </c>
+      <c r="B259" s="57">
+        <v>0.8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="54" t="s">
-        <v>449</v>
-      </c>
-      <c r="B260" s="57">
-        <v>1.5</v>
+        <v>447</v>
+      </c>
+      <c r="B260" s="57" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B261" s="57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="B262" s="56"/>
+        <v>450</v>
+      </c>
+      <c r="B262" s="57">
+        <v>2</v>
+      </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="54" t="s">
-        <v>452</v>
-      </c>
-      <c r="B263" s="57"/>
+        <v>451</v>
+      </c>
+      <c r="B263" s="56"/>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B264" s="57"/>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B265" s="57"/>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B266" s="57"/>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="54" t="s">
-        <v>456</v>
-      </c>
-      <c r="B267" s="56"/>
+        <v>455</v>
+      </c>
+      <c r="B267" s="57"/>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="54" t="s">
-        <v>459</v>
-      </c>
-      <c r="B268" s="68" t="s">
-        <v>460</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B268" s="56"/>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="54" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B269" s="68" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="B270" s="64" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="B270" s="68" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="54" t="s">
-        <v>465</v>
-      </c>
-      <c r="B271" s="69" t="s">
-        <v>466</v>
+        <v>461</v>
+      </c>
+      <c r="B271" s="64" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="54" t="s">
-        <v>467</v>
-      </c>
-      <c r="B272" s="65" t="s">
-        <v>468</v>
+        <v>463</v>
+      </c>
+      <c r="B272" s="69" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="54" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B273" s="65" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="54" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B274" s="65" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="54" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B275" s="65" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="54" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B276" s="65" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="54" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="54" t="s">
-        <v>479</v>
-      </c>
-      <c r="B278" s="65"/>
+        <v>475</v>
+      </c>
+      <c r="B278" s="65" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="54" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B279" s="65"/>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="54" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B280" s="65"/>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="54" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B281" s="65"/>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="54" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B282" s="65"/>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="54" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B283" s="65"/>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="54" t="s">
-        <v>485</v>
-      </c>
-      <c r="B284" s="70"/>
+        <v>482</v>
+      </c>
+      <c r="B284" s="65"/>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="54" t="s">
-        <v>486</v>
-      </c>
-      <c r="B285" s="65"/>
+        <v>483</v>
+      </c>
+      <c r="B285" s="70"/>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="54" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B286" s="65"/>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="54" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B287" s="65"/>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="B288" s="64" t="s">
-        <v>490</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B288" s="65"/>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="54" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B289" s="64" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B290" s="65" t="s">
-        <v>494</v>
+        <v>489</v>
+      </c>
+      <c r="B290" s="64" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="54" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="B292" s="64" t="s">
-        <v>498</v>
+        <v>493</v>
+      </c>
+      <c r="B292" s="65" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="54" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B293" s="64" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="294" ht="28.8" spans="1:2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" s="54" t="s">
-        <v>501</v>
-      </c>
-      <c r="B294" s="71" t="s">
-        <v>502</v>
+        <v>497</v>
+      </c>
+      <c r="B294" s="64" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="295" ht="28.8" spans="1:2">
       <c r="A295" s="54" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B295" s="71" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="296" ht="28.8" spans="1:2">
       <c r="A296" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B296" s="72" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>501</v>
+      </c>
+      <c r="B296" s="71" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="297" ht="28.8" spans="1:2">
       <c r="A297" s="54" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B297" s="72" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="B298" s="64" t="s">
-        <v>510</v>
+        <v>505</v>
+      </c>
+      <c r="B298" s="72" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="54" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B299" s="64" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="54" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B300" s="64" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="54" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B301" s="64" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="54" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B302" s="64" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="54" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B303" s="64" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="54" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B304" s="64" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="54" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B305" s="64" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="54" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B306" s="64" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="B307" s="64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="B308" s="64" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="309" ht="28.8" spans="1:2">
+      <c r="A309" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="B307" s="64" t="s">
+      <c r="B309" s="72" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="308" ht="28.8" spans="1:2">
-      <c r="A308" s="54" t="s">
-        <v>529</v>
-      </c>
-      <c r="B308" s="72" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="54" t="s">
-        <v>531</v>
-      </c>
-      <c r="B309" s="65"/>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="54" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B310" s="65"/>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="54" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B311" s="65"/>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="54" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B312" s="65"/>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="54" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B313" s="65"/>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="54" t="s">
-        <v>536</v>
-      </c>
-      <c r="B314" s="70"/>
+        <v>533</v>
+      </c>
+      <c r="B314" s="65"/>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="54" t="s">
-        <v>537</v>
-      </c>
-      <c r="B315" s="65"/>
+        <v>534</v>
+      </c>
+      <c r="B315" s="70"/>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="54" t="s">
-        <v>538</v>
-      </c>
-      <c r="B316" s="70"/>
+        <v>535</v>
+      </c>
+      <c r="B316" s="65"/>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="54" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B317" s="70"/>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="54" t="s">
-        <v>540</v>
-      </c>
-      <c r="B318" s="65" t="s">
-        <v>541</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="B318" s="70"/>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="54" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B319" s="65" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="54" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B320" s="65" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="54" t="s">
-        <v>546</v>
-      </c>
-      <c r="B321" s="64" t="s">
-        <v>547</v>
+        <v>542</v>
+      </c>
+      <c r="B321" s="65" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="54" t="s">
-        <v>548</v>
-      </c>
-      <c r="B322" s="65" t="s">
-        <v>549</v>
+        <v>544</v>
+      </c>
+      <c r="B322" s="64" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="54" t="s">
-        <v>550</v>
-      </c>
-      <c r="B323" s="64" t="s">
-        <v>551</v>
+        <v>546</v>
+      </c>
+      <c r="B323" s="65" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="54" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B324" s="64" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="54" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B325" s="64" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="54" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B326" s="64" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="B327" s="65" t="s">
-        <v>559</v>
+        <v>554</v>
+      </c>
+      <c r="B327" s="64" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="B328" s="72" t="s">
-        <v>561</v>
+        <v>556</v>
+      </c>
+      <c r="B328" s="65" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="54" t="s">
-        <v>562</v>
-      </c>
-      <c r="B329" s="73" t="s">
-        <v>563</v>
+        <v>558</v>
+      </c>
+      <c r="B329" s="72" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="54" t="s">
-        <v>564</v>
-      </c>
-      <c r="B330" s="74" t="s">
-        <v>565</v>
+        <v>560</v>
+      </c>
+      <c r="B330" s="73" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="54" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B331" s="74" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="54" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B332" s="74" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="B333" s="74"/>
+        <v>566</v>
+      </c>
+      <c r="B333" s="74" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="54" t="s">
-        <v>571</v>
-      </c>
-      <c r="B334" s="64"/>
+        <v>568</v>
+      </c>
+      <c r="B334" s="74"/>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="54" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B335" s="64"/>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="54" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B336" s="64"/>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="54" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B337" s="64"/>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="54" t="s">
-        <v>575</v>
-      </c>
-      <c r="B338" s="65" t="s">
-        <v>576</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="B338" s="64"/>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="54" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B339" s="65" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="54" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B340" s="65" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="54" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B341" s="65" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="54" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B342" s="65" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="54" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B343" s="65" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="54" t="s">
-        <v>587</v>
-      </c>
-      <c r="B344" s="64" t="s">
-        <v>588</v>
+        <v>583</v>
+      </c>
+      <c r="B344" s="65" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="54" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B345" s="64" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="54" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B346" s="64" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="54" t="s">
-        <v>593</v>
-      </c>
-      <c r="B347" s="72"/>
+        <v>589</v>
+      </c>
+      <c r="B347" s="64" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="54" t="s">
-        <v>594</v>
-      </c>
-      <c r="B348" s="64"/>
+        <v>591</v>
+      </c>
+      <c r="B348" s="72"/>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="54" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B349" s="64"/>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="54" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B350" s="64"/>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B351" s="64"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="54" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B352" s="64"/>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="54" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B353" s="64"/>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="54" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B354" s="64"/>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="54" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B355" s="64"/>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="54" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B356" s="64"/>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="B357" s="64"/>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="B358" s="72"/>
+    </row>
+    <row r="359" ht="28.8" spans="1:2">
+      <c r="A359" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="B359" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="B357" s="72"/>
-    </row>
-    <row r="358" ht="28.8" spans="1:2">
-      <c r="A358" s="58" t="s">
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="58" t="s">
         <v>604</v>
       </c>
-      <c r="B358" s="72" t="s">
+      <c r="B360" s="64" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="58" t="s">
+    <row r="361" ht="28.8" spans="1:2">
+      <c r="A361" s="58" t="s">
         <v>606</v>
       </c>
-      <c r="B359" s="64" t="s">
+      <c r="B361" s="71" t="s">
         <v>607</v>
-      </c>
-    </row>
-    <row r="360" ht="28.8" spans="1:2">
-      <c r="A360" s="58" t="s">
-        <v>608</v>
-      </c>
-      <c r="B360" s="71" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="58" t="s">
-        <v>610</v>
-      </c>
-      <c r="B361" s="65" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="58" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B362" s="65" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="58" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B363" s="65" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="58" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B364" s="65" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="58" t="s">
-        <v>618</v>
-      </c>
-      <c r="B365" s="64" t="s">
-        <v>619</v>
+        <v>614</v>
+      </c>
+      <c r="B365" s="65" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="B366" s="65" t="s">
-        <v>621</v>
+        <v>616</v>
+      </c>
+      <c r="B366" s="64" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="58" t="s">
-        <v>622</v>
-      </c>
-      <c r="B367" s="72"/>
+        <v>618</v>
+      </c>
+      <c r="B367" s="65" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="58" t="s">
-        <v>623</v>
-      </c>
-      <c r="B368" s="64"/>
+        <v>620</v>
+      </c>
+      <c r="B368" s="72"/>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="58" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B369" s="64"/>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="58" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B370" s="64"/>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="58" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B371" s="64"/>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="58" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B372" s="64"/>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="54" t="s">
-        <v>628</v>
+      <c r="A373" s="58" t="s">
+        <v>625</v>
       </c>
       <c r="B373" s="64"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="54" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B374" s="64"/>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="54" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B375" s="64"/>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="54" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B376" s="64"/>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="54" t="s">
-        <v>632</v>
-      </c>
-      <c r="B377" s="72"/>
+        <v>629</v>
+      </c>
+      <c r="B377" s="64"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="54" t="s">
-        <v>633</v>
-      </c>
-      <c r="B378" s="65" t="s">
-        <v>634</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="B378" s="72"/>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="54" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B379" s="65" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="54" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B380" s="65" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="54" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B381" s="65" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="54" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B382" s="65" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="54" t="s">
-        <v>643</v>
-      </c>
-      <c r="B383" s="65"/>
+        <v>639</v>
+      </c>
+      <c r="B383" s="65" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="54" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B384" s="65"/>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="B385" s="64"/>
+        <v>642</v>
+      </c>
+      <c r="B385" s="65"/>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="B386" s="65"/>
+        <v>643</v>
+      </c>
+      <c r="B386" s="64"/>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="B387" s="72"/>
+        <v>644</v>
+      </c>
+      <c r="B387" s="65"/>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="54" t="s">
-        <v>648</v>
-      </c>
-      <c r="B388" s="64"/>
+        <v>645</v>
+      </c>
+      <c r="B388" s="72"/>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="54" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B389" s="64"/>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B390" s="64"/>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="54" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B391" s="64"/>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="54" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B392" s="64"/>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B393" s="64"/>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="54" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B394" s="64"/>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="54" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B395" s="64"/>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="54" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B396" s="64"/>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="54" t="s">
+        <v>654</v>
+      </c>
+      <c r="B397" s="64"/>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="B398" s="72"/>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="58" t="s">
+        <v>656</v>
+      </c>
+      <c r="B399" s="55" t="s">
         <v>657</v>
-      </c>
-      <c r="B397" s="72"/>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="58" t="s">
-        <v>658</v>
-      </c>
-      <c r="B398" s="55" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="399" ht="28.8" spans="1:2">
-      <c r="A399" s="58" t="s">
-        <v>660</v>
-      </c>
-      <c r="B399" s="75" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="400" ht="28.8" spans="1:2">
       <c r="A400" s="58" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B400" s="75" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="54" t="s">
-        <v>664</v>
-      </c>
-      <c r="B401" s="65"/>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="401" ht="28.8" spans="1:2">
+      <c r="A401" s="58" t="s">
+        <v>660</v>
+      </c>
+      <c r="B401" s="75" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="54" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B402" s="65"/>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="54" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B403" s="65"/>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="54" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B404" s="65"/>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="54" t="s">
-        <v>668</v>
-      </c>
-      <c r="B405" s="64"/>
+        <v>665</v>
+      </c>
+      <c r="B405" s="65"/>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="54" t="s">
-        <v>669</v>
-      </c>
-      <c r="B406" s="65"/>
+        <v>666</v>
+      </c>
+      <c r="B406" s="64"/>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="54" t="s">
-        <v>670</v>
-      </c>
-      <c r="B407" s="72"/>
+        <v>667</v>
+      </c>
+      <c r="B407" s="65"/>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="54" t="s">
-        <v>671</v>
-      </c>
-      <c r="B408" s="64"/>
+        <v>668</v>
+      </c>
+      <c r="B408" s="72"/>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="54" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B409" s="64"/>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="54" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B410" s="64"/>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="54" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B411" s="64"/>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="54" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B412" s="64"/>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="54" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B413" s="64"/>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="54" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B414" s="64"/>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="54" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B415" s="64"/>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="54" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B416" s="64"/>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="54" t="s">
-        <v>680</v>
-      </c>
-      <c r="B417" s="72"/>
+        <v>677</v>
+      </c>
+      <c r="B417" s="64"/>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="58" t="s">
-        <v>681</v>
-      </c>
-      <c r="B418" s="71" t="s">
-        <v>682</v>
-      </c>
+      <c r="A418" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="B418" s="72"/>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="58" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B419" s="71" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="B420" s="64" t="s">
-        <v>686</v>
+        <v>681</v>
+      </c>
+      <c r="B420" s="71" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="54" t="s">
-        <v>687</v>
-      </c>
-      <c r="B421" s="65" t="s">
-        <v>688</v>
+      <c r="A421" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="B421" s="64" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="54" t="s">
-        <v>689</v>
-      </c>
-      <c r="B422" s="64" t="s">
-        <v>690</v>
+        <v>685</v>
+      </c>
+      <c r="B422" s="65" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="54" t="s">
-        <v>691</v>
-      </c>
-      <c r="B423" s="65"/>
+        <v>687</v>
+      </c>
+      <c r="B423" s="64" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="54" t="s">
-        <v>692</v>
-      </c>
-      <c r="B424" s="64"/>
+        <v>689</v>
+      </c>
+      <c r="B424" s="65"/>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="54" t="s">
-        <v>693</v>
-      </c>
-      <c r="B425" s="65"/>
+        <v>690</v>
+      </c>
+      <c r="B425" s="64"/>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="54" t="s">
-        <v>694</v>
-      </c>
-      <c r="B426" s="72"/>
+        <v>691</v>
+      </c>
+      <c r="B426" s="65"/>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="54" t="s">
-        <v>695</v>
-      </c>
-      <c r="B427" s="64"/>
+        <v>692</v>
+      </c>
+      <c r="B427" s="72"/>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="54" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B428" s="64"/>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="54" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B429" s="64"/>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="54" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B430" s="64"/>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="54" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B431" s="64"/>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="54" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B432" s="64"/>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="54" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B433" s="64"/>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="54" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B434" s="64"/>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="54" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B435" s="64"/>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="54" t="s">
-        <v>704</v>
-      </c>
-      <c r="B436" s="72"/>
+        <v>701</v>
+      </c>
+      <c r="B436" s="64"/>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="54" t="s">
-        <v>705</v>
-      </c>
-      <c r="B437" s="65"/>
+        <v>702</v>
+      </c>
+      <c r="B437" s="72"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="58" t="s">
-        <v>706</v>
-      </c>
-      <c r="B438" s="75" t="s">
-        <v>707</v>
-      </c>
+      <c r="A438" s="54" t="s">
+        <v>703</v>
+      </c>
+      <c r="B438" s="65"/>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="58" t="s">
-        <v>708</v>
-      </c>
-      <c r="B439" s="64" t="s">
-        <v>709</v>
+        <v>704</v>
+      </c>
+      <c r="B439" s="75" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="58" t="s">
-        <v>710</v>
-      </c>
-      <c r="B440" s="72" t="s">
-        <v>711</v>
+        <v>706</v>
+      </c>
+      <c r="B440" s="64" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="B441" s="64" t="s">
-        <v>713</v>
+      <c r="A441" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B441" s="72" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="54" t="s">
-        <v>714</v>
-      </c>
-      <c r="B442" s="65" t="s">
-        <v>715</v>
+        <v>710</v>
+      </c>
+      <c r="B442" s="64" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="54" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B443" s="65" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="B444" s="65"/>
+        <v>714</v>
+      </c>
+      <c r="B444" s="65" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="54" t="s">
-        <v>719</v>
-      </c>
-      <c r="B445" s="64"/>
+        <v>716</v>
+      </c>
+      <c r="B445" s="65"/>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="54" t="s">
-        <v>720</v>
-      </c>
-      <c r="B446" s="65"/>
+        <v>717</v>
+      </c>
+      <c r="B446" s="64"/>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="54" t="s">
-        <v>721</v>
-      </c>
-      <c r="B447" s="72"/>
+        <v>718</v>
+      </c>
+      <c r="B447" s="65"/>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="54" t="s">
-        <v>722</v>
-      </c>
-      <c r="B448" s="64"/>
+        <v>719</v>
+      </c>
+      <c r="B448" s="72"/>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="54" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B449" s="64"/>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="54" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B450" s="64"/>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="54" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B451" s="64"/>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="54" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B452" s="64"/>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="54" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B453" s="64"/>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="54" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B454" s="64"/>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="54" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B455" s="64"/>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="54" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B456" s="64"/>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="54" t="s">
-        <v>731</v>
-      </c>
-      <c r="B457" s="72"/>
+        <v>728</v>
+      </c>
+      <c r="B457" s="64"/>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="B458" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13944,7 +13869,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -13956,10 +13881,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -13971,10 +13896,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -13986,10 +13911,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -14001,10 +13926,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -14016,10 +13941,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -14031,10 +13956,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -14046,10 +13971,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -14061,10 +13986,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -14076,10 +14001,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -14091,10 +14016,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -14106,10 +14031,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -14121,10 +14046,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -14136,10 +14061,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -14151,10 +14076,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -14166,10 +14091,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -14181,10 +14106,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -14196,10 +14121,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -14211,10 +14136,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -14226,10 +14151,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -14241,10 +14166,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -14256,10 +14181,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -14271,7 +14196,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="22"/>
@@ -14284,7 +14209,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="22"/>
@@ -14297,7 +14222,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="22"/>
@@ -14310,7 +14235,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="22"/>
@@ -14323,7 +14248,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="22"/>
@@ -14336,7 +14261,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="22"/>
@@ -14349,7 +14274,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="22"/>
@@ -14362,7 +14287,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="22"/>
@@ -14375,7 +14300,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="22"/>
@@ -14522,7 +14447,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -14534,10 +14459,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -14549,10 +14474,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -14564,10 +14489,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -14579,10 +14504,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -14594,10 +14519,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -14609,10 +14534,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -14624,10 +14549,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -14639,10 +14564,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -14654,10 +14579,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -14669,10 +14594,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -14684,10 +14609,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -14699,10 +14624,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -14714,10 +14639,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -14729,10 +14654,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -14744,10 +14669,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -14759,7 +14684,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="22"/>
@@ -14772,7 +14697,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -14785,7 +14710,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -14798,7 +14723,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -14811,7 +14736,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="22"/>
@@ -14985,7 +14910,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -14997,10 +14922,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -15012,10 +14937,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -15027,10 +14952,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -15042,10 +14967,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -15057,10 +14982,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -15072,10 +14997,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -15087,10 +15012,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -15102,10 +15027,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -15117,10 +15042,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -15132,7 +15057,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -15145,7 +15070,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -15158,7 +15083,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -15171,7 +15096,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -15184,7 +15109,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -15197,7 +15122,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -15210,7 +15135,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -15223,7 +15148,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -15236,7 +15161,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -15249,7 +15174,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -15262,7 +15187,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -15427,7 +15352,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="48" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -15439,10 +15364,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -15454,10 +15379,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -15469,10 +15394,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -15484,10 +15409,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -15499,10 +15424,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -15514,10 +15439,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -15529,10 +15454,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -15544,10 +15469,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -15559,10 +15484,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -15574,7 +15499,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -15587,7 +15512,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -15600,7 +15525,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="22"/>
@@ -15613,7 +15538,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="22"/>
@@ -15626,7 +15551,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -15639,7 +15564,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="22"/>
@@ -15652,7 +15577,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22"/>
@@ -15665,7 +15590,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="22"/>
@@ -15678,7 +15603,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="22"/>
@@ -15691,7 +15616,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="22"/>
@@ -15704,7 +15629,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
